--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="23655" windowHeight="9705"/>
+    <workbookView xWindow="240" yWindow="312" windowWidth="23652" windowHeight="9708"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Практика: Черепаха</t>
   </si>
@@ -127,13 +127,43 @@
   </si>
   <si>
     <t>БИЛЕТЫ К ЗАЧЁТУ</t>
+  </si>
+  <si>
+    <t>2017 год</t>
+  </si>
+  <si>
+    <t>2016 год</t>
+  </si>
+  <si>
+    <t>2015 год</t>
+  </si>
+  <si>
+    <t>Тестирование программ</t>
+  </si>
+  <si>
+    <t>Арифметика с плавающей запятой</t>
+  </si>
+  <si>
+    <t>Проект «Обработка матриц»</t>
+  </si>
+  <si>
+    <t>Проект «Допиши игру Сапёр»</t>
+  </si>
+  <si>
+    <t>Разработка игры "Pacman"</t>
+  </si>
+  <si>
+    <t>Продолжение проекта Pacman</t>
+  </si>
+  <si>
+    <t>Сдача проекта Pacman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +197,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -177,7 +223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F4EF"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,14 +241,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -505,236 +558,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D29"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="72.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="2" spans="2:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab2.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab1.html"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab4.html"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab5.html"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab8.html"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab10.html"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab11.html"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab13.html"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab14.html"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab17.html"/>
-    <hyperlink ref="B13" r:id="rId11" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab18.html"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab19.html"/>
-    <hyperlink ref="B15" r:id="rId13" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab20.html"/>
-    <hyperlink ref="B16" r:id="rId14" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab21.html"/>
-    <hyperlink ref="B17" r:id="rId15" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab23.html"/>
-    <hyperlink ref="B18" r:id="rId16" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab25.html"/>
-    <hyperlink ref="B19" r:id="rId17" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab28.html"/>
-    <hyperlink ref="B20" r:id="rId18" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab29.html"/>
-    <hyperlink ref="B21" r:id="rId19" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab31.html"/>
-    <hyperlink ref="B29" r:id="rId20"/>
-    <hyperlink ref="D3" r:id="rId21" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab1.html"/>
-    <hyperlink ref="D4" r:id="rId22" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab2.html"/>
-    <hyperlink ref="D5" r:id="rId23" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab5.html"/>
-    <hyperlink ref="D6" r:id="rId24" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab6.html"/>
-    <hyperlink ref="D8" r:id="rId25" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab7.html"/>
-    <hyperlink ref="D13" r:id="rId26" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab9.html"/>
-    <hyperlink ref="D14" r:id="rId27" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab10.html"/>
-    <hyperlink ref="D15" r:id="rId28" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab11.html"/>
-    <hyperlink ref="D16" r:id="rId29" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab12.html"/>
-    <hyperlink ref="D12" r:id="rId30" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab15.html"/>
-    <hyperlink ref="D11" r:id="rId31" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab14.html"/>
-    <hyperlink ref="D17" r:id="rId32" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab16.html"/>
-    <hyperlink ref="D18" r:id="rId33" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab20.html"/>
-    <hyperlink ref="D19" r:id="rId34" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab22.html"/>
-    <hyperlink ref="D20" r:id="rId35" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab23.html"/>
-    <hyperlink ref="D21" r:id="rId36" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab25.html"/>
-    <hyperlink ref="D23" r:id="rId37" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab27.html"/>
-    <hyperlink ref="D24" r:id="rId38" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab28.html"/>
-    <hyperlink ref="D25" r:id="rId39" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab29.html"/>
+    <hyperlink ref="B5" r:id="rId1" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab2.html"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab1.html"/>
+    <hyperlink ref="B6" r:id="rId3" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab4.html"/>
+    <hyperlink ref="B7" r:id="rId4" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab5.html"/>
+    <hyperlink ref="B8" r:id="rId5" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab8.html"/>
+    <hyperlink ref="B9" r:id="rId6" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab10.html"/>
+    <hyperlink ref="B10" r:id="rId7" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab11.html"/>
+    <hyperlink ref="B11" r:id="rId8" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab13.html"/>
+    <hyperlink ref="B12" r:id="rId9" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab14.html"/>
+    <hyperlink ref="B13" r:id="rId10" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab17.html"/>
+    <hyperlink ref="B14" r:id="rId11" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab18.html"/>
+    <hyperlink ref="B15" r:id="rId12" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab19.html"/>
+    <hyperlink ref="B16" r:id="rId13" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab20.html"/>
+    <hyperlink ref="B17" r:id="rId14" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab21.html"/>
+    <hyperlink ref="B18" r:id="rId15" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab23.html"/>
+    <hyperlink ref="B19" r:id="rId16" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab25.html"/>
+    <hyperlink ref="B20" r:id="rId17" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab28.html"/>
+    <hyperlink ref="B21" r:id="rId18" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab29.html"/>
+    <hyperlink ref="B26" r:id="rId19" display="http://judge.mipt.ru/mipt_cs_on_python3/labs/lab31.html"/>
+    <hyperlink ref="B30" r:id="rId20"/>
+    <hyperlink ref="D4" r:id="rId21" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab1.html"/>
+    <hyperlink ref="D5" r:id="rId22" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab2.html"/>
+    <hyperlink ref="D6" r:id="rId23" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab5.html"/>
+    <hyperlink ref="D7" r:id="rId24" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab6.html"/>
+    <hyperlink ref="D9" r:id="rId25" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab7.html"/>
+    <hyperlink ref="D14" r:id="rId26" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab9.html"/>
+    <hyperlink ref="D15" r:id="rId27" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab10.html"/>
+    <hyperlink ref="D16" r:id="rId28" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab11.html"/>
+    <hyperlink ref="D17" r:id="rId29" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab12.html"/>
+    <hyperlink ref="D13" r:id="rId30" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab15.html"/>
+    <hyperlink ref="D12" r:id="rId31" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab14.html"/>
+    <hyperlink ref="D18" r:id="rId32" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab16.html"/>
+    <hyperlink ref="D19" r:id="rId33" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab20.html"/>
+    <hyperlink ref="D20" r:id="rId34" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab22.html"/>
+    <hyperlink ref="D21" r:id="rId35" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab23.html"/>
+    <hyperlink ref="D22" r:id="rId36" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab25.html"/>
+    <hyperlink ref="D24" r:id="rId37" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab27.html"/>
+    <hyperlink ref="D25" r:id="rId38" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab28.html"/>
+    <hyperlink ref="D26" r:id="rId39" display="http://judge.mipt.ru/mipt_cs_on_python3_2016/labs/lab29.html"/>
+    <hyperlink ref="B2" r:id="rId40"/>
+    <hyperlink ref="D2" r:id="rId41"/>
+    <hyperlink ref="F2" r:id="rId42"/>
+    <hyperlink ref="F5" r:id="rId43" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab6.html"/>
+    <hyperlink ref="F7" r:id="rId44" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab9.html"/>
+    <hyperlink ref="F8" r:id="rId45" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab10.html"/>
+    <hyperlink ref="F13" r:id="rId46" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab15.html"/>
+    <hyperlink ref="F10" r:id="rId47" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab13.html"/>
+    <hyperlink ref="F11" r:id="rId48" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab14.html"/>
+    <hyperlink ref="F14" r:id="rId49" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab16.html"/>
+    <hyperlink ref="F15" r:id="rId50" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
+    <hyperlink ref="F16" r:id="rId51" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
+    <hyperlink ref="F17" r:id="rId52" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
+    <hyperlink ref="F26" r:id="rId53" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab29.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -744,7 +870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -756,7 +882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="312" windowWidth="23652" windowHeight="9708"/>
+    <workbookView xWindow="240" yWindow="312" windowWidth="22800" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -256,6 +262,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -561,7 +568,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -596,17 +603,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -614,27 +621,27 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
@@ -712,7 +719,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -723,7 +730,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -734,7 +741,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -743,7 +750,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -568,7 +568,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -568,7 +568,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -624,7 +624,7 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3"/>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Практика: Черепаха</t>
   </si>
@@ -214,7 +214,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -263,6 +269,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -568,7 +575,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -645,9 +652,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -697,7 +702,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -741,7 +746,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -856,18 +861,17 @@
     <hyperlink ref="F2" r:id="rId42"/>
     <hyperlink ref="F5" r:id="rId43" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab6.html"/>
     <hyperlink ref="F7" r:id="rId44" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab9.html"/>
-    <hyperlink ref="F8" r:id="rId45" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab10.html"/>
-    <hyperlink ref="F13" r:id="rId46" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab15.html"/>
-    <hyperlink ref="F10" r:id="rId47" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab13.html"/>
-    <hyperlink ref="F11" r:id="rId48" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab14.html"/>
-    <hyperlink ref="F14" r:id="rId49" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab16.html"/>
-    <hyperlink ref="F15" r:id="rId50" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
-    <hyperlink ref="F16" r:id="rId51" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
-    <hyperlink ref="F17" r:id="rId52" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
-    <hyperlink ref="F26" r:id="rId53" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab29.html"/>
+    <hyperlink ref="F13" r:id="rId45" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab15.html"/>
+    <hyperlink ref="F10" r:id="rId46" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab13.html"/>
+    <hyperlink ref="F11" r:id="rId47" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab14.html"/>
+    <hyperlink ref="F14" r:id="rId48" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab16.html"/>
+    <hyperlink ref="F15" r:id="rId49" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
+    <hyperlink ref="F16" r:id="rId50" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
+    <hyperlink ref="F17" r:id="rId51" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
+    <hyperlink ref="F26" r:id="rId52" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab29.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="312" windowWidth="22800" windowHeight="9324"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="22800" windowHeight="9330"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="2020" sheetId="2" r:id="rId1"/>
+    <sheet name="2015-2017" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Практика: Черепаха</t>
   </si>
@@ -157,13 +157,40 @@
   </si>
   <si>
     <t>Сдача проекта Pacman</t>
+  </si>
+  <si>
+    <t>Использование Jupyter notebook, matplotlib pyplot для построения графиков функций.</t>
+  </si>
+  <si>
+    <t>Лекция №1</t>
+  </si>
+  <si>
+    <t>Исполнитель "Черепаха" (ч.1)</t>
+  </si>
+  <si>
+    <t>Использование циклов for, вложенных циклов, функций.</t>
+  </si>
+  <si>
+    <t>Лекция №2</t>
+  </si>
+  <si>
+    <t>Исполнитель "Черепаха" (ч.2)</t>
+  </si>
+  <si>
+    <t>Ветвления, функции, декомпозиция.</t>
+  </si>
+  <si>
+    <t>Лекция №3</t>
+  </si>
+  <si>
+    <t>Практика программирования на Python. 2020 год</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +240,22 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00020F"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -253,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -270,6 +313,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -572,24 +639,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="35" style="17" customWidth="1"/>
+    <col min="3" max="6" width="48.85546875" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://cs.mipt.ru/python/lessons/lab1.html"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://youtu.be/us7y0UhTq0s"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://cs.mipt.ru/python/lessons/lab2.html"/>
+    <hyperlink ref="D4" r:id="rId4" display="https://youtu.be/4NvtHHWoWXE"/>
+    <hyperlink ref="B5" r:id="rId5" display="http://cs.mipt.ru/python/lessons/lab3.html"/>
+    <hyperlink ref="D5" r:id="rId6" display="https://youtu.be/hSmvFRMm_9Q"/>
+    <hyperlink ref="B1" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
@@ -600,12 +745,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -616,7 +761,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -627,7 +772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -636,7 +781,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
@@ -647,14 +792,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -663,7 +808,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -672,7 +817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -681,7 +826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -690,7 +835,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -701,7 +846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
@@ -712,7 +857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -723,7 +868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
@@ -734,7 +879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -745,7 +890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
@@ -754,7 +899,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -763,7 +908,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -772,7 +917,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
@@ -781,23 +926,23 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
@@ -808,7 +953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
@@ -875,25 +1020,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="22800" windowHeight="9330"/>
+    <workbookView xWindow="240" yWindow="312" windowWidth="22800" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Практика: Черепаха</t>
   </si>
@@ -184,13 +184,55 @@
   </si>
   <si>
     <t>Практика программирования на Python. 2020 год</t>
+  </si>
+  <si>
+    <t>Создание картин и публикация кода в GitHub.</t>
+  </si>
+  <si>
+    <t>Рефакторинг.</t>
+  </si>
+  <si>
+    <t>Обработка событий в Pygame.</t>
+  </si>
+  <si>
+    <t>Движение шариков и дальнейшая модернизация игры.</t>
+  </si>
+  <si>
+    <t>Объектно-ориентированное программирование. Создание игры "Пушка".</t>
+  </si>
+  <si>
+    <t>Командная работа. Модель движения планет по законам Кеплера. Создание модульной программы.</t>
+  </si>
+  <si>
+    <t>Игра "Пушка"</t>
+  </si>
+  <si>
+    <t>Игра "Поймай шарик" (часть 2)</t>
+  </si>
+  <si>
+    <t>Игра "Поймай шарик" (часть 1)</t>
+  </si>
+  <si>
+    <t>Картинки на выставку (часть 2)</t>
+  </si>
+  <si>
+    <t>Картинки на выставку (часть 1)</t>
+  </si>
+  <si>
+    <t>Лекция №6</t>
+  </si>
+  <si>
+    <t>Лекция №5</t>
+  </si>
+  <si>
+    <t>Лекция №4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,19 +283,27 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00020F"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00020F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -296,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -313,28 +363,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,65 +698,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="35" style="17" customWidth="1"/>
-    <col min="3" max="6" width="48.85546875" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="7.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="35" style="14" customWidth="1"/>
+    <col min="3" max="3" width="52.21875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="14" customWidth="1"/>
+    <col min="5" max="6" width="48.88671875" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:4" s="21" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:4" s="21" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:4" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="19" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="21" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="21" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="21" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -709,9 +856,19 @@
     <hyperlink ref="B5" r:id="rId5" display="http://cs.mipt.ru/python/lessons/lab3.html"/>
     <hyperlink ref="D5" r:id="rId6" display="https://youtu.be/hSmvFRMm_9Q"/>
     <hyperlink ref="B1" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8" display="http://cs.mipt.ru/python/lessons/lab10.html"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://cs.mipt.ru/python/lessons/lab9.html"/>
+    <hyperlink ref="B10" r:id="rId10" display="http://cs.mipt.ru/python/lessons/lab8.html"/>
+    <hyperlink ref="B9" r:id="rId11" display="http://cs.mipt.ru/python/lessons/lab7.html"/>
+    <hyperlink ref="B8" r:id="rId12" display="http://cs.mipt.ru/python/lessons/lab6.html"/>
+    <hyperlink ref="B7" r:id="rId13" display="http://cs.mipt.ru/python/lessons/lab5.html"/>
+    <hyperlink ref="B6" r:id="rId14" display="http://cs.mipt.ru/python/lessons/lab4.html"/>
+    <hyperlink ref="D8" r:id="rId15" display="https://youtu.be/7uEB7QXsrFk"/>
+    <hyperlink ref="D7" r:id="rId16" display="https://youtu.be/wjCEEax2ZBk"/>
+    <hyperlink ref="D6" r:id="rId17" display="https://youtu.be/JudiqSMKB34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -719,22 +876,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
@@ -745,12 +902,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -761,7 +918,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -772,7 +929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -781,7 +938,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
@@ -792,14 +949,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -808,7 +965,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -817,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -826,7 +983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -835,7 +992,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -846,7 +1003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
@@ -857,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -868,7 +1025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
@@ -879,7 +1036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -890,7 +1047,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
@@ -899,7 +1056,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -908,7 +1065,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -917,7 +1074,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
@@ -926,23 +1083,23 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
@@ -953,7 +1110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1183,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="312" windowWidth="22800" windowHeight="9336" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="312" windowWidth="19128" windowHeight="8952" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
     <sheet name="2015-2017" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Python Pro" sheetId="3" r:id="rId3"/>
+    <sheet name="Python Algo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="151">
   <si>
     <t>Практика: Черепаха</t>
   </si>
@@ -226,13 +227,268 @@
   </si>
   <si>
     <t>Лекция №4</t>
+  </si>
+  <si>
+    <t>https://rutracker.net/forum/viewtopic.php?t=5865831</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-site-python3/tree/master/content</t>
+  </si>
+  <si>
+    <t>https://mipt-cs.github.io/python3-2017-2018/</t>
+  </si>
+  <si>
+    <t>Курс информатики на Python (2017-2018)</t>
+  </si>
+  <si>
+    <t>Алгоритмы и структуры данных</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-algo</t>
+  </si>
+  <si>
+    <t>Продвинутое программирование на Python</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab01.rst</t>
+  </si>
+  <si>
+    <t>Повторение материала прошлого года</t>
+  </si>
+  <si>
+    <t>Повторение работы в командной строке Linux</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab02.rst</t>
+  </si>
+  <si>
+    <t>Курс "Продвинутое программирование на Python"</t>
+  </si>
+  <si>
+    <t>Работа с файлами</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab03.rst</t>
+  </si>
+  <si>
+    <t>Обработка аргументов командной строки. Библиотеки sys и argparse. Декораторы</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab04.rst</t>
+  </si>
+  <si>
+    <t>Объектно-ориентированное программирование. Классы</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab05.1.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab05.rst</t>
+  </si>
+  <si>
+    <t>ООП. Абстрактный класс. Декомпозиция программы.</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab05.3.rst</t>
+  </si>
+  <si>
+    <t>Объектно-ориентированное программирование. Специальные методы.</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab06.rst</t>
+  </si>
+  <si>
+    <t>Генераторы и цикл for</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab08.rst</t>
+  </si>
+  <si>
+    <t>Итераторы и сопроцессы</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab09.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab07.rst</t>
+  </si>
+  <si>
+    <t>Многопоточность в Python. Библиотеки threading и multiprocessing.</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab27.rst</t>
+  </si>
+  <si>
+    <t>Библиотека pickle</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab13.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab10.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab11.rst</t>
+  </si>
+  <si>
+    <t>Асинхронное программирование. Библиотека asyncio.</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab12.rst</t>
+  </si>
+  <si>
+    <t>Работа с сокетами.</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab14.rst</t>
+  </si>
+  <si>
+    <t>Краткий справочник Git</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab15.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab16.rst</t>
+  </si>
+  <si>
+    <t>Библиотека Pandas для работы с данными</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab17.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab18.rst</t>
+  </si>
+  <si>
+    <t>Визуализация в Python</t>
+  </si>
+  <si>
+    <r>
+      <t>NumPy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: матрицы и операции над ними</t>
+    </r>
+  </si>
+  <si>
+    <t>Базы данных</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab19.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab20.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab21.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab22.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab23.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab24.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab25.rst</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-advanced_python/blob/master/content/lab26.rst</t>
+  </si>
+  <si>
+    <t>sqlite3 в Python</t>
+  </si>
+  <si>
+    <t>Создание Web сайтов на Python. Основы flask и HTML</t>
+  </si>
+  <si>
+    <t>Создание Web сайтов на Python. flask</t>
+  </si>
+  <si>
+    <t>Основы PyQt5</t>
+  </si>
+  <si>
+    <t>PyQt5: многопоточность GUI программ и дизайн интерфейса</t>
+  </si>
+  <si>
+    <t>Машинное обучение (Machine Learning)</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-algo/blob/master/content/lab1.rst</t>
+  </si>
+  <si>
+    <t>Работа в командной строке Linux</t>
+  </si>
+  <si>
+    <t>Базовый синтаксис языка Python</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-algo/blob/master/content/lab2.rst</t>
+  </si>
+  <si>
+    <t>Сложная обработка потока и системы счисления</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-algo/blob/master/content/lab4.rst</t>
+  </si>
+  <si>
+    <t>Списки</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-algo/blob/master/content/lab8.rst</t>
+  </si>
+  <si>
+    <t>Сортировки</t>
+  </si>
+  <si>
+    <t>Рекурсия</t>
+  </si>
+  <si>
+    <t>Быстрые сортировки</t>
+  </si>
+  <si>
+    <t>Строки</t>
+  </si>
+  <si>
+    <t>Вопросы к устному зачёту</t>
+  </si>
+  <si>
+    <t>Работа с ошибками в Python</t>
+  </si>
+  <si>
+    <t>Множества и словари в Python</t>
+  </si>
+  <si>
+    <t>https://github.com/mipt-cs/course-algo/blob/master/content/lab22.rst</t>
+  </si>
+  <si>
+    <t>Работа с файлами, построение графиков</t>
+  </si>
+  <si>
+    <t>Лекция по теории игр</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +562,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -346,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -396,6 +667,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -701,14 +973,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="35" style="14" customWidth="1"/>
-    <col min="3" max="3" width="52.21875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" style="14" customWidth="1"/>
     <col min="5" max="6" width="48.88671875" style="14" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="14"/>
@@ -874,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -892,7 +1164,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -925,7 +1197,7 @@
       <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1111,11 +1383,56 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1171,20 +1488,624 @@
     <hyperlink ref="F16" r:id="rId50" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
     <hyperlink ref="F17" r:id="rId51" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab17.html"/>
     <hyperlink ref="F26" r:id="rId52" display="http://judge.mipt.ru/mipt_cs_on_python3_2015/labs/lab29.html"/>
+    <hyperlink ref="B31" r:id="rId53"/>
+    <hyperlink ref="B32" r:id="rId54"/>
+    <hyperlink ref="B36" r:id="rId55"/>
+    <hyperlink ref="B37" r:id="rId56"/>
+    <hyperlink ref="B41" r:id="rId57"/>
+    <hyperlink ref="B45" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="23"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C1" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C24" r:id="rId5"/>
+    <hyperlink ref="C25" r:id="rId6"/>
+    <hyperlink ref="C26" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="C28" r:id="rId9"/>
+    <hyperlink ref="C29" r:id="rId10"/>
+    <hyperlink ref="C30" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="23"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
 </file>
--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="312" windowWidth="19128" windowHeight="8952" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="312" windowWidth="19128" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -578,7 +578,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +603,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -617,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -668,6 +674,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -972,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,16 +1007,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="21" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1034,16 +1049,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1861,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
